--- a/data/trans_orig/P36B04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AA3A8E-15AC-40CD-A052-A5373FF7237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82C1935E-35B4-4423-B16D-C8686780E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F4372FC-0ECA-47F1-8CDD-2C8E969C918F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{328D9B1E-45D5-4BE9-889A-666F0000B944}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="977">
   <si>
     <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -1183,12 +1183,120 @@
     <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
     <t>1,7%</t>
   </si>
   <si>
@@ -1396,1324 +1504,1297 @@
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -3299,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C9A67D-95D5-4BF4-8674-2FDF1D528A38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF3FBFC-0D7B-4669-8E4F-08788340070D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5986,7 +6067,7 @@
         <v>1902</v>
       </c>
       <c r="D54" s="7">
-        <v>1937504</v>
+        <v>1937503</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>353</v>
@@ -6139,7 +6220,7 @@
         <v>3213</v>
       </c>
       <c r="D57" s="7">
-        <v>3275658</v>
+        <v>3275657</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>59</v>
@@ -6207,7 +6288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA7B6C-74ED-4A5F-9F82-D83D1B3CFE4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB9A220-AA65-46D3-83C0-8FEC2310FB94}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6325,43 +6406,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13758</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>381</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19339</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>381</v>
+        <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N4" s="7">
+        <v>33097</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,43 +6457,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7059</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10349</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N5" s="7">
+        <v>17408</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,43 +6508,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="D6" s="7">
+        <v>147131</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="I6" s="7">
+        <v>128975</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="N6" s="7">
+        <v>276106</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,43 +6559,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="D7" s="7">
+        <v>113145</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I7" s="7">
+        <v>102696</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="N7" s="7">
+        <v>215842</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,43 +6610,49 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11835</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I8" s="7">
+        <v>24904</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N8" s="7">
+        <v>36739</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,43 +6661,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D9" s="7">
+        <v>292927</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I9" s="7">
+        <v>286265</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>535</v>
+      </c>
+      <c r="N9" s="7">
+        <v>579193</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>381</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6735,13 @@
         <v>8874</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6633,10 +6750,10 @@
         <v>15565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>336</v>
@@ -6654,13 +6771,13 @@
         <v>75419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -6669,13 +6786,13 @@
         <v>59693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="M11" s="7">
         <v>126</v>
@@ -6687,10 +6804,10 @@
         <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6822,13 @@
         <v>343470</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="H12" s="7">
         <v>343</v>
@@ -6720,13 +6837,13 @@
         <v>376264</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="M12" s="7">
         <v>664</v>
@@ -6735,13 +6852,13 @@
         <v>719734</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6873,13 @@
         <v>77990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -6771,13 +6888,13 @@
         <v>69723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -6786,13 +6903,13 @@
         <v>147713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,7 +6930,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6828,7 +6945,7 @@
         <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6837,13 +6954,13 @@
         <v>8096</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,7 +7049,7 @@
         <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6947,7 +7064,7 @@
         <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +7079,13 @@
         <v>27572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -6977,13 +7094,13 @@
         <v>25539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -6992,13 +7109,13 @@
         <v>53111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,10 +7133,10 @@
         <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="H18" s="7">
         <v>192</v>
@@ -7028,13 +7145,13 @@
         <v>206220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="M18" s="7">
         <v>392</v>
@@ -7043,13 +7160,13 @@
         <v>412260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7181,13 @@
         <v>81748</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>94</v>
@@ -7079,13 +7196,13 @@
         <v>100555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>177</v>
@@ -7094,13 +7211,13 @@
         <v>182302</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7232,13 @@
         <v>4859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -7130,13 +7247,13 @@
         <v>5749</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -7145,13 +7262,13 @@
         <v>10608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,49 +7330,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>14773</v>
+        <v>1015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>453</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>22298</v>
+        <v>2958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>457</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>37071</v>
+        <v>3974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>458</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>460</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,49 +7381,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>16228</v>
+        <v>9169</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="H23" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>23801</v>
+        <v>13451</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N23" s="7">
-        <v>40029</v>
+        <v>22621</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>466</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,49 +7432,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="D24" s="7">
-        <v>335478</v>
+        <v>188347</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="I24" s="7">
-        <v>335916</v>
+        <v>206941</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="M24" s="7">
-        <v>633</v>
+        <v>376</v>
       </c>
       <c r="N24" s="7">
-        <v>671393</v>
+        <v>395287</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,49 +7483,49 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="D25" s="7">
-        <v>280223</v>
+        <v>167077</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="I25" s="7">
-        <v>255734</v>
+        <v>153038</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="M25" s="7">
-        <v>493</v>
+        <v>292</v>
       </c>
       <c r="N25" s="7">
-        <v>535957</v>
+        <v>320115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,49 +7534,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8374</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H26" s="7">
+        <v>12</v>
+      </c>
+      <c r="I26" s="7">
+        <v>12563</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M26" s="7">
         <v>20</v>
       </c>
-      <c r="D26" s="7">
-        <v>20208</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H26" s="7">
-        <v>34</v>
-      </c>
-      <c r="I26" s="7">
-        <v>37467</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="M26" s="7">
-        <v>54</v>
-      </c>
       <c r="N26" s="7">
-        <v>57675</v>
+        <v>20936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,10 +7585,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>624</v>
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>666910</v>
+        <v>373982</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -7483,10 +7600,10 @@
         <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>626</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>675216</v>
+        <v>388951</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7498,10 +7615,10 @@
         <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>1250</v>
+        <v>715</v>
       </c>
       <c r="N27" s="7">
-        <v>1342126</v>
+        <v>762933</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -7527,13 +7644,13 @@
         <v>1990</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7542,13 +7659,13 @@
         <v>4789</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7557,13 +7674,13 @@
         <v>6780</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7695,13 @@
         <v>7480</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -7596,10 +7713,10 @@
         <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -7608,13 +7725,13 @@
         <v>14539</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>459</v>
+        <v>534</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7746,13 @@
         <v>171412</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="H30" s="7">
         <v>164</v>
@@ -7644,13 +7761,13 @@
         <v>169638</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="M30" s="7">
         <v>320</v>
@@ -7659,13 +7776,13 @@
         <v>341050</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,13 +7797,13 @@
         <v>29331</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="H31" s="7">
         <v>35</v>
@@ -7695,13 +7812,13 @@
         <v>36149</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -7710,13 +7827,13 @@
         <v>65480</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7848,7 @@
         <v>2404</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
@@ -7746,13 +7863,13 @@
         <v>1956</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -7767,7 +7884,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,7 +7958,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -7850,13 +7967,13 @@
         <v>3089</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -7868,10 +7985,10 @@
         <v>51</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +8003,13 @@
         <v>23044</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="H35" s="7">
         <v>17</v>
@@ -7901,13 +8018,13 @@
         <v>16964</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>536</v>
+        <v>566</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="M35" s="7">
         <v>39</v>
@@ -7916,13 +8033,13 @@
         <v>40007</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +8054,13 @@
         <v>164582</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>543</v>
+        <v>573</v>
       </c>
       <c r="H36" s="7">
         <v>167</v>
@@ -7952,13 +8069,13 @@
         <v>173049</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>544</v>
+        <v>574</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>545</v>
+        <v>575</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="M36" s="7">
         <v>325</v>
@@ -7967,13 +8084,13 @@
         <v>337631</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7988,13 +8105,13 @@
         <v>75907</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="H37" s="7">
         <v>73</v>
@@ -8003,13 +8120,13 @@
         <v>77118</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="M37" s="7">
         <v>144</v>
@@ -8018,13 +8135,13 @@
         <v>153025</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8039,7 +8156,7 @@
         <v>8129</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>140</v>
@@ -8057,10 +8174,10 @@
         <v>335</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="M38" s="7">
         <v>16</v>
@@ -8069,13 +8186,13 @@
         <v>16905</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>144</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,10 +8263,10 @@
         <v>144</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -8161,10 +8278,10 @@
         <v>376</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
@@ -8173,13 +8290,13 @@
         <v>21390</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8194,13 +8311,13 @@
         <v>64525</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="H41" s="7">
         <v>80</v>
@@ -8209,13 +8326,13 @@
         <v>88508</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="M41" s="7">
         <v>142</v>
@@ -8224,13 +8341,13 @@
         <v>153033</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8245,13 +8362,13 @@
         <v>419273</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="H42" s="7">
         <v>404</v>
@@ -8260,13 +8377,13 @@
         <v>439220</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="M42" s="7">
         <v>794</v>
@@ -8278,10 +8395,10 @@
         <v>243</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8296,13 +8413,13 @@
         <v>141990</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="H43" s="7">
         <v>126</v>
@@ -8311,13 +8428,13 @@
         <v>138823</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>588</v>
+        <v>618</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="M43" s="7">
         <v>260</v>
@@ -8326,13 +8443,13 @@
         <v>280814</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>593</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8347,10 +8464,10 @@
         <v>19254</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>224</v>
@@ -8365,10 +8482,10 @@
         <v>378</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="M44" s="7">
         <v>28</v>
@@ -8380,10 +8497,10 @@
         <v>19</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8451,13 +8568,13 @@
         <v>6370</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -8466,13 +8583,13 @@
         <v>10987</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="M46" s="7">
         <v>17</v>
@@ -8484,10 +8601,10 @@
         <v>372</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,13 +8619,13 @@
         <v>67367</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="H47" s="7">
         <v>84</v>
@@ -8517,13 +8634,13 @@
         <v>91477</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="M47" s="7">
         <v>148</v>
@@ -8532,13 +8649,13 @@
         <v>158845</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,13 +8670,13 @@
         <v>449346</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="H48" s="7">
         <v>424</v>
@@ -8568,13 +8685,13 @@
         <v>467302</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="M48" s="7">
         <v>841</v>
@@ -8583,13 +8700,13 @@
         <v>916648</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8604,13 +8721,13 @@
         <v>233673</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="H49" s="7">
         <v>207</v>
@@ -8619,7 +8736,7 @@
         <v>221399</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>363</v>
@@ -8634,13 +8751,13 @@
         <v>455072</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>625</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8655,13 +8772,13 @@
         <v>22342</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>486</v>
+        <v>657</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="H50" s="7">
         <v>28</v>
@@ -8670,13 +8787,13 @@
         <v>29377</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>628</v>
+        <v>659</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="M50" s="7">
         <v>48</v>
@@ -8685,13 +8802,13 @@
         <v>51719</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8759,10 +8876,10 @@
         <v>47513</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>634</v>
+        <v>518</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>302</v>
@@ -8774,13 +8891,13 @@
         <v>62843</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>461</v>
+        <v>665</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="M52" s="7">
         <v>101</v>
@@ -8789,10 +8906,10 @@
         <v>110356</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>58</v>
@@ -8810,13 +8927,13 @@
         <v>281636</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="H53" s="7">
         <v>291</v>
@@ -8825,13 +8942,13 @@
         <v>313040</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="M53" s="7">
         <v>558</v>
@@ -8840,13 +8957,13 @@
         <v>594676</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8861,13 +8978,13 @@
         <v>2089602</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="H54" s="7">
         <v>2010</v>
@@ -8876,13 +8993,13 @@
         <v>2167609</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="M54" s="7">
         <v>3969</v>
@@ -8891,13 +9008,13 @@
         <v>4257211</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8912,13 +9029,13 @@
         <v>920862</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="H55" s="7">
         <v>834</v>
@@ -8927,13 +9044,13 @@
         <v>899503</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
       <c r="M55" s="7">
         <v>1692</v>
@@ -8942,13 +9059,13 @@
         <v>1820364</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>662</v>
+        <v>692</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,10 +9083,10 @@
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="H56" s="7">
         <v>94</v>
@@ -8978,13 +9095,13 @@
         <v>101385</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="M56" s="7">
         <v>167</v>
@@ -8993,13 +9110,13 @@
         <v>180538</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>668</v>
+        <v>412</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>669</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,7 +9196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8054C3-F961-4859-8EFA-3012C014AF84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C459E12A-1408-4EF3-8064-20FCE6FCF592}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9096,7 +9213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9203,13 +9320,13 @@
         <v>9347</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -9218,13 +9335,13 @@
         <v>10022</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>486</v>
+        <v>657</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -9233,13 +9350,13 @@
         <v>19368</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9254,7 +9371,7 @@
         <v>21097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>264</v>
@@ -9269,13 +9386,13 @@
         <v>27467</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -9284,13 +9401,13 @@
         <v>48564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9305,13 +9422,13 @@
         <v>187381</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="H6" s="7">
         <v>166</v>
@@ -9320,13 +9437,13 @@
         <v>170636</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="M6" s="7">
         <v>333</v>
@@ -9335,13 +9452,13 @@
         <v>358017</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9356,13 +9473,13 @@
         <v>64111</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -9371,13 +9488,13 @@
         <v>67739</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="M7" s="7">
         <v>125</v>
@@ -9386,13 +9503,13 @@
         <v>131851</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9407,13 +9524,13 @@
         <v>10879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -9422,13 +9539,13 @@
         <v>10998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -9437,13 +9554,13 @@
         <v>21877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>707</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9511,7 +9628,7 @@
         <v>2071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
@@ -9526,13 +9643,13 @@
         <v>1169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -9541,13 +9658,13 @@
         <v>3240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9562,13 +9679,13 @@
         <v>31109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>715</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -9577,13 +9694,13 @@
         <v>33296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -9592,7 +9709,7 @@
         <v>64405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>270</v>
@@ -9613,13 +9730,13 @@
         <v>277534</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="H12" s="7">
         <v>274</v>
@@ -9628,13 +9745,13 @@
         <v>293328</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="M12" s="7">
         <v>539</v>
@@ -9643,13 +9760,13 @@
         <v>570862</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9664,13 +9781,13 @@
         <v>163811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -9679,13 +9796,13 @@
         <v>170265</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -9694,13 +9811,13 @@
         <v>334076</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9715,13 +9832,13 @@
         <v>25980</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>457</v>
+        <v>766</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -9730,13 +9847,13 @@
         <v>25026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -9745,13 +9862,13 @@
         <v>51007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9819,13 +9936,13 @@
         <v>1762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9849,7 +9966,7 @@
         <v>1762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>750</v>
+        <v>488</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
@@ -9870,13 +9987,13 @@
         <v>55121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -9885,13 +10002,13 @@
         <v>68031</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -9900,13 +10017,13 @@
         <v>123152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9921,13 +10038,13 @@
         <v>239506</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="H18" s="7">
         <v>246</v>
@@ -9936,13 +10053,13 @@
         <v>253417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="M18" s="7">
         <v>498</v>
@@ -9951,13 +10068,13 @@
         <v>492923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9972,13 +10089,13 @@
         <v>20015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -9987,13 +10104,13 @@
         <v>13976</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -10002,13 +10119,13 @@
         <v>33992</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>766</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10023,13 +10140,13 @@
         <v>2160</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -10038,13 +10155,13 @@
         <v>884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -10053,13 +10170,13 @@
         <v>3045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>776</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10133,7 +10250,7 @@
         <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -10142,13 +10259,13 @@
         <v>9984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -10163,7 +10280,7 @@
         <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10178,13 +10295,13 @@
         <v>9535</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -10193,13 +10310,13 @@
         <v>8653</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>784</v>
+        <v>809</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -10208,13 +10325,13 @@
         <v>18188</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>707</v>
+        <v>387</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>786</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10229,13 +10346,13 @@
         <v>214997</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="H24" s="7">
         <v>213</v>
@@ -10244,13 +10361,13 @@
         <v>231976</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="M24" s="7">
         <v>420</v>
@@ -10259,13 +10376,13 @@
         <v>446973</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10280,13 +10397,13 @@
         <v>132859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>796</v>
+        <v>821</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="H25" s="7">
         <v>116</v>
@@ -10295,13 +10412,13 @@
         <v>122653</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>799</v>
+        <v>824</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
       <c r="M25" s="7">
         <v>243</v>
@@ -10310,13 +10427,13 @@
         <v>255512</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>803</v>
+        <v>828</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>804</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10331,13 +10448,13 @@
         <v>10599</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -10346,13 +10463,13 @@
         <v>14016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>806</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>831</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -10361,13 +10478,13 @@
         <v>24616</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10441,7 +10558,7 @@
         <v>217</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10486,13 +10603,13 @@
         <v>989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -10504,10 +10621,10 @@
         <v>103</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -10519,7 +10636,7 @@
         <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>58</v>
@@ -10537,13 +10654,13 @@
         <v>43547</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>813</v>
+        <v>838</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -10552,13 +10669,13 @@
         <v>46906</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -10567,13 +10684,13 @@
         <v>90453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,13 +10705,13 @@
         <v>161937</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="H31" s="7">
         <v>167</v>
@@ -10603,13 +10720,13 @@
         <v>164707</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="M31" s="7">
         <v>329</v>
@@ -10618,13 +10735,13 @@
         <v>326644</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,13 +10756,13 @@
         <v>3756</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -10654,13 +10771,13 @@
         <v>4299</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -10675,7 +10792,7 @@
         <v>179</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10743,7 +10860,7 @@
         <v>1959</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>15</v>
@@ -10758,13 +10875,13 @@
         <v>11264</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="M34" s="7">
         <v>13</v>
@@ -10773,13 +10890,13 @@
         <v>13223</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>839</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10794,13 +10911,13 @@
         <v>16005</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -10809,10 +10926,10 @@
         <v>12808</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>487</v>
+        <v>865</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>25</v>
@@ -10824,13 +10941,13 @@
         <v>28814</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10845,13 +10962,13 @@
         <v>193448</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="H36" s="7">
         <v>181</v>
@@ -10860,13 +10977,13 @@
         <v>185920</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>848</v>
+        <v>873</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="M36" s="7">
         <v>371</v>
@@ -10875,13 +10992,13 @@
         <v>379368</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>852</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10896,13 +11013,13 @@
         <v>51711</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>854</v>
+        <v>879</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="H37" s="7">
         <v>59</v>
@@ -10911,13 +11028,13 @@
         <v>63123</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="M37" s="7">
         <v>111</v>
@@ -10926,13 +11043,13 @@
         <v>114834</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>859</v>
+        <v>884</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>860</v>
+        <v>885</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>861</v>
+        <v>886</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10953,7 +11070,7 @@
         <v>217</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -11054,10 +11171,10 @@
         <v>382</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -11066,13 +11183,13 @@
         <v>18046</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>864</v>
+        <v>889</v>
       </c>
       <c r="M40" s="7">
         <v>33</v>
@@ -11081,13 +11198,13 @@
         <v>34556</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>865</v>
+        <v>890</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11102,13 +11219,13 @@
         <v>119300</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>867</v>
+        <v>892</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>868</v>
+        <v>893</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>869</v>
+        <v>894</v>
       </c>
       <c r="H41" s="7">
         <v>113</v>
@@ -11117,13 +11234,13 @@
         <v>116867</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>870</v>
+        <v>895</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>871</v>
+        <v>896</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
       <c r="M41" s="7">
         <v>216</v>
@@ -11132,13 +11249,13 @@
         <v>236167</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>875</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11153,13 +11270,13 @@
         <v>340187</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="H42" s="7">
         <v>313</v>
@@ -11168,13 +11285,13 @@
         <v>335452</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>881</v>
+        <v>906</v>
       </c>
       <c r="M42" s="7">
         <v>615</v>
@@ -11183,13 +11300,13 @@
         <v>675640</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>883</v>
+        <v>908</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11204,13 +11321,13 @@
         <v>166076</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>885</v>
+        <v>910</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="H43" s="7">
         <v>183</v>
@@ -11219,13 +11336,13 @@
         <v>199570</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>887</v>
+        <v>912</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>888</v>
+        <v>913</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>889</v>
+        <v>914</v>
       </c>
       <c r="M43" s="7">
         <v>329</v>
@@ -11234,13 +11351,13 @@
         <v>365646</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>861</v>
+        <v>886</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11261,7 +11378,7 @@
         <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>492</v>
+        <v>916</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -11276,7 +11393,7 @@
         <v>149</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="M44" s="7">
         <v>26</v>
@@ -11285,13 +11402,13 @@
         <v>27997</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>465</v>
+        <v>918</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11374,13 +11491,13 @@
         <v>5444</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>892</v>
+        <v>919</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>893</v>
+        <v>920</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>461</v>
+        <v>665</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -11392,10 +11509,10 @@
         <v>101</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11410,13 +11527,13 @@
         <v>88626</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>894</v>
+        <v>921</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>895</v>
+        <v>922</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="H47" s="7">
         <v>68</v>
@@ -11425,13 +11542,13 @@
         <v>79801</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>897</v>
+        <v>924</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>899</v>
+        <v>926</v>
       </c>
       <c r="M47" s="7">
         <v>150</v>
@@ -11440,13 +11557,13 @@
         <v>168426</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>901</v>
+        <v>928</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11461,13 +11578,13 @@
         <v>366484</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>905</v>
+        <v>932</v>
       </c>
       <c r="H48" s="7">
         <v>390</v>
@@ -11476,13 +11593,13 @@
         <v>422921</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>908</v>
+        <v>935</v>
       </c>
       <c r="M48" s="7">
         <v>741</v>
@@ -11491,13 +11608,13 @@
         <v>789406</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>910</v>
+        <v>937</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>911</v>
+        <v>938</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11512,13 +11629,13 @@
         <v>303393</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>912</v>
+        <v>939</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>914</v>
+        <v>941</v>
       </c>
       <c r="H49" s="7">
         <v>276</v>
@@ -11527,28 +11644,28 @@
         <v>300676</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>915</v>
+        <v>942</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>916</v>
+        <v>943</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>917</v>
+        <v>944</v>
       </c>
       <c r="M49" s="7">
         <v>574</v>
       </c>
       <c r="N49" s="7">
-        <v>604069</v>
+        <v>604068</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>918</v>
+        <v>945</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>919</v>
+        <v>946</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>920</v>
+        <v>947</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11569,7 +11686,7 @@
         <v>218</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="H50" s="7">
         <v>12</v>
@@ -11578,13 +11695,13 @@
         <v>12759</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>179</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>921</v>
+        <v>948</v>
       </c>
       <c r="M50" s="7">
         <v>22</v>
@@ -11596,10 +11713,10 @@
         <v>376</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>922</v>
+        <v>949</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11641,7 +11758,7 @@
         <v>1494</v>
       </c>
       <c r="N51" s="7">
-        <v>1592250</v>
+        <v>1592249</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>59</v>
@@ -11670,10 +11787,10 @@
         <v>14</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>923</v>
+        <v>950</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>461</v>
+        <v>665</v>
       </c>
       <c r="H52" s="7">
         <v>52</v>
@@ -11682,13 +11799,13 @@
         <v>55929</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>334</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>924</v>
+        <v>951</v>
       </c>
       <c r="M52" s="7">
         <v>84</v>
@@ -11700,7 +11817,7 @@
         <v>149</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>784</v>
+        <v>809</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>98</v>
@@ -11718,13 +11835,13 @@
         <v>341781</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>925</v>
+        <v>952</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>926</v>
+        <v>953</v>
       </c>
       <c r="H53" s="7">
         <v>332</v>
@@ -11733,13 +11850,13 @@
         <v>349596</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>927</v>
+        <v>954</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>928</v>
+        <v>955</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>929</v>
+        <v>956</v>
       </c>
       <c r="M53" s="7">
         <v>647</v>
@@ -11748,13 +11865,13 @@
         <v>691377</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>930</v>
+        <v>957</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>931</v>
+        <v>958</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>932</v>
+        <v>959</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11769,10 +11886,10 @@
         <v>1863085</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>934</v>
+        <v>961</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>159</v>
@@ -11784,13 +11901,13 @@
         <v>1940557</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>935</v>
+        <v>962</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>936</v>
+        <v>963</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>937</v>
+        <v>964</v>
       </c>
       <c r="M54" s="7">
         <v>3610</v>
@@ -11802,10 +11919,10 @@
         <v>314</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>611</v>
+        <v>641</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11820,13 +11937,13 @@
         <v>1063912</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>939</v>
+        <v>966</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>940</v>
+        <v>967</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="H55" s="7">
         <v>1035</v>
@@ -11835,13 +11952,13 @@
         <v>1102710</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>942</v>
+        <v>969</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>943</v>
+        <v>970</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>944</v>
+        <v>971</v>
       </c>
       <c r="M55" s="7">
         <v>2056</v>
@@ -11850,13 +11967,13 @@
         <v>2166622</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>946</v>
+        <v>973</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11871,13 +11988,13 @@
         <v>75570</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>486</v>
+        <v>657</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="H56" s="7">
         <v>76</v>
@@ -11886,13 +12003,13 @@
         <v>83720</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>948</v>
+        <v>975</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>302</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="M56" s="7">
         <v>146</v>
@@ -11907,7 +12024,7 @@
         <v>66</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>949</v>
+        <v>976</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
